--- a/RVario6/BOM.xlsx
+++ b/RVario6/BOM.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1739F82-79CA-4FFA-9518-3CC609EA808A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBB10953-BDF8-47BA-A5D5-FC4B75B46E70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>U1</t>
   </si>
@@ -37,33 +37,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>ATMEGA32U4-MU</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/microchip-technology/ATMEGA32U4-MU/ATMEGA32U4-MU-ND/1914603</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>GX531S-8.000KKF1001</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
-    <t>C1,C2</t>
-  </si>
-  <si>
-    <t>CC0603JRNPO9BN100</t>
-  </si>
-  <si>
-    <t>8MHz 5x3.2 crystal</t>
-  </si>
-  <si>
-    <t>10pF 0603</t>
-  </si>
-  <si>
     <t>ZX62D-B-5P8</t>
   </si>
   <si>
@@ -82,34 +61,158 @@
     <t>22 ohm 0603</t>
   </si>
   <si>
-    <t>LQW18ANR22J80D</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/murata-electronics-north-america/LQW18ANR22J80D/490-16903-1-ND/7595811</t>
-  </si>
-  <si>
-    <t>220nH inductor, Lchoke</t>
-  </si>
-  <si>
-    <t>R_DC?</t>
+    <t>CSTCE8M00G55-RO</t>
+  </si>
+  <si>
+    <t>8MHz crystal</t>
+  </si>
+  <si>
+    <t>Schottkey</t>
+  </si>
+  <si>
+    <t>B0540W</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>ATMEGA32U4-MUR</t>
+  </si>
+  <si>
+    <t>3.3V VREG</t>
+  </si>
+  <si>
+    <t>CJT1117-3.3</t>
+  </si>
+  <si>
+    <t>CC0805KKX5R8BB106</t>
+  </si>
+  <si>
+    <t>10uF cap</t>
+  </si>
+  <si>
+    <t>0.1uF cap</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>RC0603JR-072K2L</t>
+  </si>
+  <si>
+    <t>2.2k res</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB103</t>
+  </si>
+  <si>
+    <t>10nF cap</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>BMP280</t>
+  </si>
+  <si>
+    <t>LED GREEN</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>LED BLUE</t>
+  </si>
+  <si>
+    <t>19-217-G7C-AN1P2-3T</t>
+  </si>
+  <si>
+    <t>19-217-BHC-ZL1M2RY-3T</t>
+  </si>
+  <si>
+    <t>220 ohm</t>
+  </si>
+  <si>
+    <t>RC0603JR-07220RL</t>
+  </si>
+  <si>
+    <t>R5,R6</t>
+  </si>
+  <si>
+    <t>ISP header</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>P125-12A1BS116A1</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>W25Q32BVZPIP</t>
+  </si>
+  <si>
+    <t>4MB flash</t>
+  </si>
+  <si>
+    <t>1uF cap</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB105</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>R3,R4,R7,R8</t>
+  </si>
+  <si>
+    <t>C6,C7,C8,C9,C10,C11,C14</t>
+  </si>
+  <si>
+    <t>C1,C2,C3,C4,C5,C15</t>
+  </si>
+  <si>
+    <t>MPU-9250</t>
+  </si>
+  <si>
+    <t>MPU9250</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>SMD btn</t>
+  </si>
+  <si>
+    <t>DTSM-62K-S-V-T/R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,16 +235,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,20 +520,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.796875" customWidth="1"/>
     <col min="2" max="2" width="16.296875" customWidth="1"/>
     <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -447,44 +547,62 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>310010016</v>
       </c>
       <c r="E2">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2">
+        <f>E2*C2</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M2">
+        <f>SUM(K2:K100)</f>
+        <v>9.0479999999999983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>320010005</v>
+      </c>
+      <c r="E3">
+        <v>0.12</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f t="shared" ref="K3:K29" si="0">E3*C3</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -494,81 +612,460 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>301010289</v>
+      </c>
       <c r="E4">
         <v>0.01</v>
       </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>306010053</v>
+      </c>
+      <c r="E5">
+        <v>0.188</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>320010005</v>
-      </c>
-      <c r="E5">
-        <v>0.12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>301010289</v>
+        <v>304020012</v>
       </c>
       <c r="E6">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7">
+        <v>310030097</v>
+      </c>
+      <c r="E7">
+        <v>0.08</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>0.22</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>302010178</v>
+      </c>
+      <c r="E8">
+        <v>0.02</v>
+      </c>
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>302010138</v>
+      </c>
+      <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>301010124</v>
+      </c>
+      <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>302010140</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>314030010</v>
+      </c>
+      <c r="E12">
+        <v>1.07</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>304090043</v>
+      </c>
+      <c r="E13">
+        <v>0.02</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>304090045</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>301010163</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>320020077</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>310090078</v>
+      </c>
+      <c r="E17">
+        <v>0.26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>302010139</v>
+      </c>
+      <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>314990005</v>
+      </c>
+      <c r="E19">
+        <v>2.8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>311020004</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{8A97B87E-CF8F-4604-A0C8-82D25B5CD29C}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{6364573E-C70F-4B66-9150-18AFF0B63A76}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RVario6/BOM.xlsx
+++ b/RVario6/BOM.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBB10953-BDF8-47BA-A5D5-FC4B75B46E70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A51C47-D823-4C46-A569-07532D8F0AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>U1</t>
   </si>
@@ -203,6 +208,15 @@
   </si>
   <si>
     <t>DTSM-62K-S-V-T/R</t>
+  </si>
+  <si>
+    <t>SD card holder</t>
+  </si>
+  <si>
+    <t>TF-01</t>
+  </si>
+  <si>
+    <t>J7</t>
   </si>
 </sst>
 </file>
@@ -522,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +589,7 @@
       </c>
       <c r="M2">
         <f>SUM(K2:K100)</f>
-        <v>9.0479999999999983</v>
+        <v>9.1579999999999977</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1011,9 +1025,27 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>320090008</v>
+      </c>
+      <c r="E21">
+        <v>0.11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">

--- a/RVario6/BOM.xlsx
+++ b/RVario6/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A51C47-D823-4C46-A569-07532D8F0AB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092EEFBB-D617-4FCB-BEE4-A7055C331F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>R3,R4,R7,R8</t>
   </si>
   <si>
-    <t>C6,C7,C8,C9,C10,C11,C14</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C4,C5,C15</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>J7</t>
+  </si>
+  <si>
+    <t>C6,C7,C8,C9,C10,C11,C14,C16,C17,C18</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>2.8</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0.05</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>0.11</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>

--- a/RVario6/BOM.xlsx
+++ b/RVario6/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092EEFBB-D617-4FCB-BEE4-A7055C331F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E7060-BB36-40F2-A089-509A07162EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>U1</t>
   </si>
@@ -183,9 +183,6 @@
     <t>C13</t>
   </si>
   <si>
-    <t>R3,R4,R7,R8</t>
-  </si>
-  <si>
     <t>C1,C2,C3,C4,C5,C15</t>
   </si>
   <si>
@@ -217,6 +214,27 @@
   </si>
   <si>
     <t>C6,C7,C8,C9,C10,C11,C14,C16,C17,C18</t>
+  </si>
+  <si>
+    <t>NFET</t>
+  </si>
+  <si>
+    <t>CJ2302</t>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+  </si>
+  <si>
+    <t>47k resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RC0603JR-0747KL	</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R3,R4,R8,R9,R10</t>
   </si>
 </sst>
 </file>
@@ -537,7 +555,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +607,7 @@
       </c>
       <c r="M2">
         <f>SUM(K2:K100)</f>
-        <v>9.1579999999999977</v>
+        <v>9.237999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -714,7 +732,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -738,7 +756,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -762,13 +780,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>301010124</v>
@@ -781,7 +799,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -978,10 +996,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -993,7 +1011,7 @@
         <v>2.8</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -1002,10 +1020,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1017,7 +1035,7 @@
         <v>0.05</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
@@ -1026,10 +1044,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1041,7 +1059,7 @@
         <v>0.11</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -1049,15 +1067,51 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>305030015</v>
+      </c>
+      <c r="E22">
+        <v>0.03</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>301010084</v>
+      </c>
+      <c r="E23">
+        <v>0.01</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">

--- a/RVario6/BOM.xlsx
+++ b/RVario6/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E7060-BB36-40F2-A089-509A07162EC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A996D77-5969-4AE0-A6FA-B00DDE136237}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +607,7 @@
       </c>
       <c r="M2">
         <f>SUM(K2:K100)</f>
-        <v>9.237999999999996</v>
+        <v>9.2879999999999967</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>302010178</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -762,7 +762,7 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>302010138</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
